--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -1,79 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasui/Desktop/Excel自動化編/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A12275-2C68-C14F-AD86-E1302A894389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>請求No.</t>
-  </si>
-  <si>
-    <t>合計金額</t>
-  </si>
-  <si>
-    <t>請求日</t>
-  </si>
-  <si>
-    <t>請求先会社名</t>
-    <rPh sb="3" eb="6">
-      <t xml:space="preserve">カイシャメイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,44 +83,109 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,7 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -456,27 +498,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col width="20.7109375" customWidth="1" style="4" min="1" max="2"/>
+    <col width="20.7109375" customWidth="1" style="7" min="3" max="3"/>
+    <col width="20.7109375" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>請求No.</t>
+        </is>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>請求先会社名</t>
+        </is>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>合計金額</t>
+        </is>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>請求日</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -525,6 +525,11 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -87,7 +88,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -113,6 +114,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -526,8 +528,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="0" t="n">
         <v>10001</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>テスト１株式会社</t>
+        </is>
+      </c>
+      <c r="C2">
+        <f>L32</f>
+        <v/>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>44652</v>
       </c>
     </row>
   </sheetData>

--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -531,14 +531,13 @@
       <c r="A2" s="0" t="n">
         <v>10001</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>テスト１株式会社</t>
         </is>
       </c>
-      <c r="C2">
-        <f>L32</f>
-        <v/>
+      <c r="C2" s="0" t="n">
+        <v>11000</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>44652</v>

--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -15,9 +15,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="\#,##0;\-#,##0"/>
+    <numFmt numFmtId="167" formatCode="/#,##0;/-#,##0"/>
+    <numFmt numFmtId="168" formatCode="¥#,##0;¥-#,##0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -88,7 +91,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +118,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -536,7 +548,7 @@
           <t>テスト１株式会社</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="12" t="n">
         <v>11000</v>
       </c>
       <c r="D2" s="9" t="n">

--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -15,12 +15,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="\#,##0;\-#,##0"/>
     <numFmt numFmtId="167" formatCode="/#,##0;/-#,##0"/>
     <numFmt numFmtId="168" formatCode="¥#,##0;¥-#,##0"/>
+    <numFmt numFmtId="169" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -91,7 +92,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,6 +128,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -551,7 +553,7 @@
       <c r="C2" s="12" t="n">
         <v>11000</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="13" t="n">
         <v>44652</v>
       </c>
     </row>

--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -1,57 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py50/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FED3DB5-91EC-274C-9AE1-3454AB07347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>請求No.</t>
+  </si>
+  <si>
+    <t>請求先会社名</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>請求日</t>
+  </si>
+  <si>
+    <t>テスト１株式会社</t>
+  </si>
+  <si>
+    <t>テスト２株式会社</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="\#,##0;\-#,##0"/>
-    <numFmt numFmtId="167" formatCode="/#,##0;/-#,##0"/>
-    <numFmt numFmtId="168" formatCode="¥#,##0;¥-#,##0"/>
-    <numFmt numFmtId="169" formatCode="yyyy/m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0;\¥\-#,##0"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,120 +114,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="5" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -501,12 +456,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -514,50 +465,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col width="20.7109375" customWidth="1" style="4" min="1" max="2"/>
-    <col width="20.7109375" customWidth="1" style="7" min="3" max="3"/>
-    <col width="20.7109375" customWidth="1" style="1" min="4" max="4"/>
+    <col min="1" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>請求No.</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>請求先会社名</t>
-        </is>
-      </c>
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>合計金額</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>請求日</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>テスト１株式会社</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
         <v>11000</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="8">
         <v>44652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>60500</v>
+      </c>
+      <c r="D3" s="8">
+        <v>44682</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -1,83 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py50/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FED3DB5-91EC-274C-9AE1-3454AB07347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>請求No.</t>
-  </si>
-  <si>
-    <t>請求先会社名</t>
-  </si>
-  <si>
-    <t>合計金額</t>
-  </si>
-  <si>
-    <t>請求日</t>
-  </si>
-  <si>
-    <t>テスト１株式会社</t>
-  </si>
-  <si>
-    <t>テスト２株式会社</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="\¥#,##0;\¥\-#,##0"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,49 +84,118 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -456,7 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -465,55 +508,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col width="20.7109375" customWidth="1" style="4" min="1" max="2"/>
+    <col width="20.7109375" customWidth="1" style="10" min="3" max="3"/>
+    <col width="20.7109375" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>請求No.</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>請求先会社名</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>合計金額</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>請求日</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>テスト１株式会社</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n">
         <v>11000</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="8" t="n">
         <v>44652</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>10002</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>テスト２株式会社</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="n">
         <v>60500</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="8" t="n">
         <v>44682</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -15,9 +15,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="166" formatCode="¥#,##0;¥-#,##0"/>
+    <numFmt numFmtId="167" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -88,7 +90,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,6 +125,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -500,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -544,10 +551,10 @@
           <t>テスト１株式会社</t>
         </is>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="14" t="n">
         <v>11000</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="15" t="n">
         <v>44652</v>
       </c>
     </row>
@@ -560,11 +567,27 @@
           <t>テスト２株式会社</t>
         </is>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="16" t="n">
         <v>60500</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="15" t="n">
         <v>44682</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>テスト３株式会社</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>44713</v>
       </c>
     </row>
   </sheetData>

--- a/excel/bill_list.xlsx
+++ b/excel/bill_list.xlsx
@@ -1,55 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py50/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF96270-B988-F346-B245-EB141C091159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>請求No.</t>
+  </si>
+  <si>
+    <t>請求先会社名</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>請求日</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="166" formatCode="¥#,##0;¥-#,##0"/>
-    <numFmt numFmtId="167" formatCode="yyyy/m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,123 +106,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="5" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -502,95 +443,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col width="20.7109375" customWidth="1" style="4" min="1" max="2"/>
-    <col width="20.7109375" customWidth="1" style="10" min="3" max="3"/>
-    <col width="20.7109375" customWidth="1" style="1" min="4" max="4"/>
+    <col min="1" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>請求No.</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>請求先会社名</t>
-        </is>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>合計金額</t>
-        </is>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>請求日</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>10001</v>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>テスト１株式会社</t>
-        </is>
-      </c>
-      <c r="C2" s="14" t="n">
-        <v>11000</v>
-      </c>
-      <c r="D2" s="15" t="n">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>10002</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>テスト２株式会社</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="n">
-        <v>60500</v>
-      </c>
-      <c r="D3" s="15" t="n">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10003</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>テスト３株式会社</t>
-        </is>
-      </c>
-      <c r="C4" s="16" t="n">
-        <v>110000</v>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>44713</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>